--- a/mfa/S_cerevisiae/run_files/Plim__D_0_28/scGEM_Plim__D_0_28_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Plim__D_0_28/scGEM_Plim__D_0_28_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438156 ala__L_c + 0.173110 arg__L_c + 0.208091 asn__L_c + 0.208091 asp__L_c + 0.006279 cys__L_c + 0.347117 gln__L_c + 0.347117 glu__L_c + 0.398691 gly_c + 0.086555 his__L_c + 0.264149 ile__L_c + 0.359225 leu__L_c + 0.294646 lys__L_c + 0.051126 met__L_c + 0.168625 phe__L_c + 0.189255 pro__L_c + 0.239035 ser__L_c + 0.249798 thr__L_c + 0.029151 trp__L_c + 0.087900 tyr__L_c + 0.328729 val__L_c + 0.537325 mannan_c + 0.833814 13BDglucan_c + 0.219425 16BDglucan_c + 0.019713 chtn_c + 0.401994 glycogen_c + 0.020150 tre_c + 0.002524 ergstest_c + 0.009859 ergst_c + 0.002563 pail_c + 0.009562 pc_c + 0.002570 pe_c + 0.002207 ps_c + 0.002543 tag_c + 0.001426 ipcbiom_c + 0.000549 ffabiom_c + 0.067172 ctp_c + 0.069126 gtp_c + 0.090013 utp_c + 0.003075 datp_c + 0.002076 dctp_c + 0.002076 dgtp_c + 0.003075 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.728825 atp_c + 93.710009 h2o_c --&gt; 4.474845 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.780584 ppi_c</t>
+    <t xml:space="preserve">0.438156 ala__L_c + 0.173110 arg__L_c + 0.208091 asn__L_c + 0.208091 asp__L_c + 0.006279 cys__L_c + 0.347117 gln__L_c + 0.347117 glu__L_c + 0.398691 gly_c + 0.086555 his__L_c + 0.264149 ile__L_c + 0.359225 leu__L_c + 0.294646 lys__L_c + 0.051126 met__L_c + 0.168625 phe__L_c + 0.189255 pro__L_c + 0.239035 ser__L_c + 0.249798 thr__L_c + 0.029151 trp__L_c + 0.087900 tyr__L_c + 0.328729 val__L_c + 0.537325 mannan_c + 0.833814 13BDglucan_c + 0.219425 16BDglucan_c + 0.019713 chtn_c + 0.401994 glycogen_c + 0.020150 tre_c + 0.002524 ergstest_c + 0.009859 ergst_c + 0.002563 pail_c + 0.009562 pc_c + 0.002570 pe_c + 0.002207 ps_c + 0.002543 tag_c + 0.001426 ipcbiom_c + 0.000549 ffabiom_c + 0.067172 ctp_c + 0.069126 gtp_c + 0.090013 utp_c + 0.003075 datp_c + 0.002076 dctp_c + 0.002076 dgtp_c + 0.003075 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 144.006913 atp_c + 134.988097 h2o_c --&gt; 4.474845 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.780584 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14672,10 +14672,10 @@
   </sheetPr>
   <dimension ref="A1:N568"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A531" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A568" activeCellId="0" sqref="A568"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33422,7 +33422,7 @@
   </sheetPr>
   <dimension ref="A1:L484"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A484" activeCellId="0" sqref="A484"/>
